--- a/arquivos/gabarito.xlsx
+++ b/arquivos/gabarito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tassiovalle/Documents/optical-mark-recognizer/arquivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2657E5-CE0E-B24D-90B6-6F906670AE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D471A5-8B13-5540-AF44-FAE158522EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{7C65DD22-FAF3-DF4A-B386-AD82B1BB38EB}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +483,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>2</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>2</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>2</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>2</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>2</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>2</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>2</v>
@@ -651,7 +651,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>2</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>2</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>2</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>2</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>2</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>2</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>2</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>2</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>3</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>3</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>3</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>3</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>3</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>3</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>3</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>3</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>3</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>137</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>3</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>3</v>
@@ -867,7 +867,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>3</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -883,7 +883,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>3</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>142</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>3</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>3</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>3</v>
@@ -915,7 +915,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -923,7 +923,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>3</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>3</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>3</v>
@@ -947,7 +947,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>3</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>3</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>4</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>4</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>4</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>4</v>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>4</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>157</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>4</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>4</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>4</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>4</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>4</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>163</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>4</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>4</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>4</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>4</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>4</v>
@@ -1099,7 +1099,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>4</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>4</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>4</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>4</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>4</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>4</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>4</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>175</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>4</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>4</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>177</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>4</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>4</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>4</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>4</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>5</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>182</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>5</v>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>5</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>5</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>5</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>5</v>
@@ -1251,7 +1251,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>5</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>5</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>5</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>5</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>5</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>5</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>5</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>5</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>195</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>5</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>5</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>5</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>5</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>5</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>5</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>201</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>5</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>5</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>5</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>5</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>5</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>5</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>5</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>5</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>5</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>5</v>
